--- a/TP_Plasma/Datas/P_AR.xlsx
+++ b/TP_Plasma/Datas/P_AR.xlsx
@@ -14,18 +14,152 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="1">
-  <si>
-    <t/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="46">
+  <si>
+    <t>1.7e-2</t>
+  </si>
+  <si>
+    <t>1.8e-2</t>
+  </si>
+  <si>
+    <t>1.9e-2</t>
+  </si>
+  <si>
+    <t>2e-2</t>
+  </si>
+  <si>
+    <t>2.2e-2</t>
+  </si>
+  <si>
+    <t>2.4e-2</t>
+  </si>
+  <si>
+    <t>2.6e-2</t>
+  </si>
+  <si>
+    <t>2.8e-2</t>
+  </si>
+  <si>
+    <t>3e-2</t>
+  </si>
+  <si>
+    <t>3.3e-2</t>
+  </si>
+  <si>
+    <t>3.6e-2</t>
+  </si>
+  <si>
+    <t>3.9e-2</t>
+  </si>
+  <si>
+    <t>4.2e-2</t>
+  </si>
+  <si>
+    <t>4.5e-2</t>
+  </si>
+  <si>
+    <t>4.8e-2</t>
+  </si>
+  <si>
+    <t>5.1e-2</t>
+  </si>
+  <si>
+    <t>5.4e-2</t>
+  </si>
+  <si>
+    <t>5.7e-2</t>
+  </si>
+  <si>
+    <t>6e-2</t>
+  </si>
+  <si>
+    <t>6.3e-2</t>
+  </si>
+  <si>
+    <t>6.6e-2</t>
+  </si>
+  <si>
+    <t>6.9e-2</t>
+  </si>
+  <si>
+    <t>7.3e-2</t>
+  </si>
+  <si>
+    <t>7.7e-2</t>
+  </si>
+  <si>
+    <t>8.3e-2</t>
+  </si>
+  <si>
+    <t>8e-2</t>
+  </si>
+  <si>
+    <t>8.6e-2</t>
+  </si>
+  <si>
+    <t>9e-2</t>
+  </si>
+  <si>
+    <t>9.5e-2</t>
+  </si>
+  <si>
+    <t>1e-1</t>
+  </si>
+  <si>
+    <t>1.1e-1</t>
+  </si>
+  <si>
+    <t>1.2e-1</t>
+  </si>
+  <si>
+    <t>1.3e-1</t>
+  </si>
+  <si>
+    <t>1.4e-1</t>
+  </si>
+  <si>
+    <t>1.5e-1</t>
+  </si>
+  <si>
+    <t>1.6e-1</t>
+  </si>
+  <si>
+    <t>1.7e-1</t>
+  </si>
+  <si>
+    <t>1.8e-1</t>
+  </si>
+  <si>
+    <t>rien</t>
+  </si>
+  <si>
+    <t>2e-1</t>
+  </si>
+  <si>
+    <t>3.5e-1</t>
+  </si>
+  <si>
+    <t>4.5e-1</t>
+  </si>
+  <si>
+    <t>5.5e-1</t>
+  </si>
+  <si>
+    <t>7e-1</t>
+  </si>
+  <si>
+    <t>2.5e-1</t>
+  </si>
+  <si>
+    <t>3e-1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="0.00e+00"/>
-    <numFmt numFmtId="165" formatCode="#,##0.000000"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0.000000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -37,13 +171,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -77,35 +211,35 @@
   </cellStyleXfs>
   <cellXfs count="11">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="165" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="165" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="165" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="165" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="165" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -409,15 +543,15 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C54"/>
+  <dimension ref="A1:C63"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
@@ -434,7 +568,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" s="3"/>
     </row>
@@ -443,7 +577,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C3" s="3"/>
     </row>
@@ -452,7 +586,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C4" s="3"/>
     </row>
@@ -461,7 +595,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C5" s="3"/>
     </row>
@@ -470,7 +604,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C6" s="3"/>
     </row>
@@ -479,7 +613,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C7" s="3"/>
     </row>
@@ -488,7 +622,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C8" s="3"/>
     </row>
@@ -497,7 +631,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C9" s="3"/>
     </row>
@@ -506,7 +640,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C10" s="3"/>
     </row>
@@ -515,7 +649,7 @@
         <v>11</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C11" s="3"/>
     </row>
@@ -524,7 +658,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C12" s="3"/>
     </row>
@@ -533,7 +667,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C13" s="3"/>
     </row>
@@ -542,7 +676,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="C14" s="3"/>
     </row>
@@ -551,7 +685,7 @@
         <v>15</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="C15" s="3"/>
     </row>
@@ -560,7 +694,7 @@
         <v>16</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="C16" s="3"/>
     </row>
@@ -568,8 +702,8 @@
       <c r="A17" s="1">
         <v>17</v>
       </c>
-      <c r="B17" s="5" t="s">
-        <v>0</v>
+      <c r="B17" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="C17" s="3"/>
     </row>
@@ -577,8 +711,8 @@
       <c r="A18" s="1">
         <v>18</v>
       </c>
-      <c r="B18" s="5" t="s">
-        <v>0</v>
+      <c r="B18" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="C18" s="3"/>
     </row>
@@ -586,8 +720,8 @@
       <c r="A19" s="1">
         <v>19</v>
       </c>
-      <c r="B19" s="5" t="s">
-        <v>0</v>
+      <c r="B19" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="C19" s="3"/>
     </row>
@@ -595,8 +729,8 @@
       <c r="A20" s="1">
         <v>20</v>
       </c>
-      <c r="B20" s="5" t="s">
-        <v>0</v>
+      <c r="B20" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="C20" s="3"/>
     </row>
@@ -604,8 +738,8 @@
       <c r="A21" s="1">
         <v>21</v>
       </c>
-      <c r="B21" s="5" t="s">
-        <v>0</v>
+      <c r="B21" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="C21" s="3"/>
     </row>
@@ -613,8 +747,8 @@
       <c r="A22" s="1">
         <v>22</v>
       </c>
-      <c r="B22" s="5" t="s">
-        <v>0</v>
+      <c r="B22" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="C22" s="3"/>
     </row>
@@ -623,7 +757,7 @@
         <v>23</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="C23" s="3"/>
     </row>
@@ -632,7 +766,7 @@
         <v>24</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="C24" s="3"/>
     </row>
@@ -641,7 +775,7 @@
         <v>25</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="C25" s="3"/>
     </row>
@@ -649,8 +783,8 @@
       <c r="A26" s="1">
         <v>26</v>
       </c>
-      <c r="B26" s="5" t="s">
-        <v>0</v>
+      <c r="B26" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="C26" s="3"/>
     </row>
@@ -659,7 +793,7 @@
         <v>27</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="C27" s="3"/>
     </row>
@@ -668,7 +802,7 @@
         <v>28</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="C28" s="3"/>
     </row>
@@ -677,7 +811,7 @@
         <v>29</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="C29" s="3"/>
     </row>
@@ -686,7 +820,7 @@
         <v>30</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="C30" s="3"/>
     </row>
@@ -695,7 +829,7 @@
         <v>31</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="C31" s="3"/>
     </row>
@@ -704,7 +838,7 @@
         <v>32</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C32" s="3"/>
     </row>
@@ -713,7 +847,7 @@
         <v>33</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="C33" s="3"/>
     </row>
@@ -721,8 +855,8 @@
       <c r="A34" s="1">
         <v>34</v>
       </c>
-      <c r="B34" s="6" t="s">
-        <v>0</v>
+      <c r="B34" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="C34" s="3"/>
     </row>
@@ -730,8 +864,8 @@
       <c r="A35" s="1">
         <v>35</v>
       </c>
-      <c r="B35" s="6" t="s">
-        <v>0</v>
+      <c r="B35" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="C35" s="3"/>
     </row>
@@ -739,8 +873,8 @@
       <c r="A36" s="1">
         <v>36</v>
       </c>
-      <c r="B36" s="6" t="s">
-        <v>0</v>
+      <c r="B36" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="C36" s="3"/>
     </row>
@@ -748,8 +882,8 @@
       <c r="A37" s="1">
         <v>37</v>
       </c>
-      <c r="B37" s="6" t="s">
-        <v>0</v>
+      <c r="B37" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="C37" s="3"/>
     </row>
@@ -757,8 +891,8 @@
       <c r="A38" s="1">
         <v>38</v>
       </c>
-      <c r="B38" s="6" t="s">
-        <v>0</v>
+      <c r="B38" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="C38" s="3"/>
     </row>
@@ -766,8 +900,8 @@
       <c r="A39" s="1">
         <v>39</v>
       </c>
-      <c r="B39" s="6" t="s">
-        <v>0</v>
+      <c r="B39" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="C39" s="3"/>
     </row>
@@ -775,17 +909,19 @@
       <c r="A40" s="1">
         <v>40</v>
       </c>
-      <c r="B40" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C40" s="3"/>
+      <c r="B40" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="17.25">
       <c r="A41" s="1">
         <v>41</v>
       </c>
-      <c r="B41" s="5" t="s">
-        <v>0</v>
+      <c r="B41" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="C41" s="3"/>
     </row>
@@ -793,38 +929,46 @@
       <c r="A42" s="1">
         <v>42</v>
       </c>
-      <c r="B42" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C42" s="3"/>
+      <c r="B42" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
       <c r="A43" s="1">
         <v>43</v>
       </c>
-      <c r="B43" s="7"/>
+      <c r="B43" s="5" t="s">
+        <v>40</v>
+      </c>
       <c r="C43" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
       <c r="A44" s="1">
         <v>44</v>
       </c>
-      <c r="B44" s="7"/>
+      <c r="B44" s="5" t="s">
+        <v>41</v>
+      </c>
       <c r="C44" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
       <c r="A45" s="1">
         <v>45</v>
       </c>
-      <c r="B45" s="7"/>
+      <c r="B45" s="5" t="s">
+        <v>42</v>
+      </c>
       <c r="C45" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
       <c r="A46" s="1">
         <v>46</v>
       </c>
-      <c r="B46" s="6" t="s">
-        <v>0</v>
+      <c r="B46" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="C46" s="3"/>
     </row>
@@ -832,49 +976,136 @@
       <c r="A47" s="1">
         <v>47</v>
       </c>
-      <c r="B47" s="7"/>
+      <c r="B47" s="5">
+        <v>1</v>
+      </c>
       <c r="C47" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75">
       <c r="A48" s="1">
         <v>48</v>
       </c>
-      <c r="B48" s="7"/>
+      <c r="B48" s="5">
+        <v>2</v>
+      </c>
       <c r="C48" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75">
       <c r="A49" s="1">
         <v>49</v>
       </c>
-      <c r="B49" s="7"/>
+      <c r="B49" s="5" t="s">
+        <v>44</v>
+      </c>
       <c r="C49" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75">
       <c r="A50" s="1">
         <v>50</v>
       </c>
-      <c r="B50" s="7"/>
-      <c r="C50" s="3"/>
+      <c r="B50" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75">
-      <c r="A51" s="3"/>
-      <c r="B51" s="7"/>
+      <c r="A51" s="6">
+        <v>51</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>45</v>
+      </c>
       <c r="C51" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75">
-      <c r="A52" s="3"/>
-      <c r="B52" s="7"/>
+      <c r="A52" s="6">
+        <v>52</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>25</v>
+      </c>
       <c r="C52" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="17.25">
-      <c r="A53" s="3"/>
-      <c r="B53" s="8"/>
+    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75">
+      <c r="A53" s="6">
+        <v>53</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>24</v>
+      </c>
       <c r="C53" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="19.5">
-      <c r="A54" s="3"/>
-      <c r="B54" s="8"/>
+    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18.75">
+      <c r="A54" s="6">
+        <v>54</v>
+      </c>
+      <c r="B54" s="7" t="s">
+        <v>27</v>
+      </c>
       <c r="C54" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18.75">
+      <c r="A55" s="6">
+        <v>55</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C55" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18.75">
+      <c r="A56" s="6">
+        <v>56</v>
+      </c>
+      <c r="B56" s="7"/>
+      <c r="C56" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18.75">
+      <c r="A57" s="6">
+        <v>57</v>
+      </c>
+      <c r="B57" s="7"/>
+      <c r="C57" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18.75">
+      <c r="A58" s="6">
+        <v>58</v>
+      </c>
+      <c r="B58" s="7"/>
+      <c r="C58" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18.75">
+      <c r="A59" s="6">
+        <v>59</v>
+      </c>
+      <c r="B59" s="7"/>
+      <c r="C59" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18.75">
+      <c r="A60" s="6">
+        <v>60</v>
+      </c>
+      <c r="B60" s="7"/>
+      <c r="C60" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="18.75">
+      <c r="A61" s="6">
+        <v>61</v>
+      </c>
+      <c r="B61" s="5"/>
+      <c r="C61" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="17.25">
+      <c r="A62" s="6"/>
+      <c r="B62" s="5"/>
+      <c r="C62" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="19.5">
+      <c r="A63" s="6"/>
+      <c r="B63" s="5"/>
+      <c r="C63" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/TP_Plasma/Datas/P_AR.xlsx
+++ b/TP_Plasma/Datas/P_AR.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="46">
   <si>
     <t>1.7e-2</t>
   </si>
@@ -94,12 +94,51 @@
     <t>8e-2</t>
   </si>
   <si>
+    <t>rien</t>
+  </si>
+  <si>
+    <t>1.4e-1</t>
+  </si>
+  <si>
+    <t>1.5e-1</t>
+  </si>
+  <si>
+    <t>1.6e-1</t>
+  </si>
+  <si>
+    <t>1.7e-1</t>
+  </si>
+  <si>
+    <t>1.8e-1</t>
+  </si>
+  <si>
+    <t>2e-1</t>
+  </si>
+  <si>
+    <t>3.5e-1</t>
+  </si>
+  <si>
+    <t>4.5e-1</t>
+  </si>
+  <si>
+    <t>5.5e-1</t>
+  </si>
+  <si>
+    <t>7e-1</t>
+  </si>
+  <si>
+    <t>2.5e-1</t>
+  </si>
+  <si>
+    <t>3e-1</t>
+  </si>
+  <si>
+    <t>9e-2</t>
+  </si>
+  <si>
     <t>8.6e-2</t>
   </si>
   <si>
-    <t>9e-2</t>
-  </si>
-  <si>
     <t>9.5e-2</t>
   </si>
   <si>
@@ -109,49 +148,10 @@
     <t>1.1e-1</t>
   </si>
   <si>
+    <t>1.3e-1</t>
+  </si>
+  <si>
     <t>1.2e-1</t>
-  </si>
-  <si>
-    <t>1.3e-1</t>
-  </si>
-  <si>
-    <t>1.4e-1</t>
-  </si>
-  <si>
-    <t>1.5e-1</t>
-  </si>
-  <si>
-    <t>1.6e-1</t>
-  </si>
-  <si>
-    <t>1.7e-1</t>
-  </si>
-  <si>
-    <t>1.8e-1</t>
-  </si>
-  <si>
-    <t>rien</t>
-  </si>
-  <si>
-    <t>2e-1</t>
-  </si>
-  <si>
-    <t>3.5e-1</t>
-  </si>
-  <si>
-    <t>4.5e-1</t>
-  </si>
-  <si>
-    <t>5.5e-1</t>
-  </si>
-  <si>
-    <t>7e-1</t>
-  </si>
-  <si>
-    <t>2.5e-1</t>
-  </si>
-  <si>
-    <t>3e-1</t>
   </si>
 </sst>
 </file>
@@ -223,14 +223,14 @@
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
@@ -801,44 +801,52 @@
       <c r="A28" s="1">
         <v>28</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C28" s="3"/>
+      <c r="B28" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="17.25">
       <c r="A29" s="1">
         <v>29</v>
       </c>
-      <c r="B29" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C29" s="3"/>
+      <c r="B29" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="17.25">
       <c r="A30" s="1">
         <v>30</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C30" s="3"/>
+      <c r="B30" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="17.25">
       <c r="A31" s="1">
         <v>31</v>
       </c>
-      <c r="B31" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C31" s="3"/>
+      <c r="B31" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="17.25">
       <c r="A32" s="1">
         <v>32</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C32" s="3"/>
     </row>
@@ -847,7 +855,7 @@
         <v>33</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C33" s="3"/>
     </row>
@@ -856,7 +864,7 @@
         <v>34</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C34" s="3"/>
     </row>
@@ -865,7 +873,7 @@
         <v>35</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C35" s="3"/>
     </row>
@@ -874,7 +882,7 @@
         <v>36</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C36" s="3"/>
     </row>
@@ -883,7 +891,7 @@
         <v>37</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C37" s="3"/>
     </row>
@@ -892,7 +900,7 @@
         <v>38</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C38" s="3"/>
     </row>
@@ -901,7 +909,7 @@
         <v>39</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C39" s="3"/>
     </row>
@@ -910,10 +918,10 @@
         <v>40</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="17.25">
@@ -921,7 +929,7 @@
         <v>41</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C41" s="3"/>
     </row>
@@ -930,18 +938,18 @@
         <v>42</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
       <c r="A43" s="1">
         <v>43</v>
       </c>
-      <c r="B43" s="5" t="s">
-        <v>40</v>
+      <c r="B43" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="C43" s="3"/>
     </row>
@@ -949,8 +957,8 @@
       <c r="A44" s="1">
         <v>44</v>
       </c>
-      <c r="B44" s="5" t="s">
-        <v>41</v>
+      <c r="B44" s="6" t="s">
+        <v>34</v>
       </c>
       <c r="C44" s="3"/>
     </row>
@@ -958,8 +966,8 @@
       <c r="A45" s="1">
         <v>45</v>
       </c>
-      <c r="B45" s="5" t="s">
-        <v>42</v>
+      <c r="B45" s="6" t="s">
+        <v>35</v>
       </c>
       <c r="C45" s="3"/>
     </row>
@@ -968,7 +976,7 @@
         <v>46</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="C46" s="3"/>
     </row>
@@ -976,7 +984,7 @@
       <c r="A47" s="1">
         <v>47</v>
       </c>
-      <c r="B47" s="5">
+      <c r="B47" s="6">
         <v>1</v>
       </c>
       <c r="C47" s="3"/>
@@ -985,7 +993,7 @@
       <c r="A48" s="1">
         <v>48</v>
       </c>
-      <c r="B48" s="5">
+      <c r="B48" s="6">
         <v>2</v>
       </c>
       <c r="C48" s="3"/>
@@ -994,8 +1002,8 @@
       <c r="A49" s="1">
         <v>49</v>
       </c>
-      <c r="B49" s="5" t="s">
-        <v>44</v>
+      <c r="B49" s="6" t="s">
+        <v>37</v>
       </c>
       <c r="C49" s="3"/>
     </row>
@@ -1003,108 +1011,122 @@
       <c r="A50" s="1">
         <v>50</v>
       </c>
-      <c r="B50" s="5" t="s">
+      <c r="B50" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75">
+      <c r="A51" s="7">
+        <v>51</v>
+      </c>
+      <c r="B51" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C50" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75">
-      <c r="A51" s="6">
-        <v>51</v>
-      </c>
-      <c r="B51" s="5" t="s">
+      <c r="C51" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75">
+      <c r="A52" s="7">
+        <v>52</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C52" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75">
+      <c r="A53" s="7">
+        <v>53</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C53" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18.75">
+      <c r="A54" s="7">
+        <v>54</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C54" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18.75">
+      <c r="A55" s="7">
+        <v>55</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C55" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18.75">
+      <c r="A56" s="7">
+        <v>56</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C56" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18.75">
+      <c r="A57" s="7">
+        <v>57</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C57" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18.75">
+      <c r="A58" s="7">
+        <v>58</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C58" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18.75">
+      <c r="A59" s="7">
+        <v>59</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18.75">
+      <c r="A60" s="7">
+        <v>60</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C60" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="18.75">
+      <c r="A61" s="7">
+        <v>61</v>
+      </c>
+      <c r="B61" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C51" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75">
-      <c r="A52" s="6">
-        <v>52</v>
-      </c>
-      <c r="B52" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C52" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75">
-      <c r="A53" s="6">
-        <v>53</v>
-      </c>
-      <c r="B53" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C53" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18.75">
-      <c r="A54" s="6">
-        <v>54</v>
-      </c>
-      <c r="B54" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C54" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18.75">
-      <c r="A55" s="6">
-        <v>55</v>
-      </c>
-      <c r="B55" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C55" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18.75">
-      <c r="A56" s="6">
-        <v>56</v>
-      </c>
-      <c r="B56" s="7"/>
-      <c r="C56" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18.75">
-      <c r="A57" s="6">
-        <v>57</v>
-      </c>
-      <c r="B57" s="7"/>
-      <c r="C57" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18.75">
-      <c r="A58" s="6">
-        <v>58</v>
-      </c>
-      <c r="B58" s="7"/>
-      <c r="C58" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18.75">
-      <c r="A59" s="6">
-        <v>59</v>
-      </c>
-      <c r="B59" s="7"/>
-      <c r="C59" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18.75">
-      <c r="A60" s="6">
-        <v>60</v>
-      </c>
-      <c r="B60" s="7"/>
-      <c r="C60" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="18.75">
-      <c r="A61" s="6">
-        <v>61</v>
-      </c>
-      <c r="B61" s="5"/>
       <c r="C61" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="17.25">
-      <c r="A62" s="6"/>
-      <c r="B62" s="5"/>
+      <c r="A62" s="7"/>
+      <c r="B62" s="6"/>
       <c r="C62" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="19.5">
-      <c r="A63" s="6"/>
-      <c r="B63" s="5"/>
+      <c r="A63" s="7"/>
+      <c r="B63" s="6"/>
       <c r="C63" s="3"/>
     </row>
   </sheetData>
